--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15150" windowHeight="1635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Page" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Reset_Page" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J4"/>
+  <oleSize ref="A1:I10"/>
 </workbook>
 </file>
 
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Page" sheetId="3" r:id="rId1"/>
     <sheet name="Login_Page" sheetId="1" r:id="rId2"/>
     <sheet name="Reset_Page" sheetId="2" r:id="rId3"/>
+    <sheet name="Users_Page" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <oleSize ref="A1:N8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>admin</t>
   </si>
@@ -41,6 +43,9 @@
   </si>
   <si>
     <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeffry Jeffry Jose</t>
   </si>
 </sst>
 </file>
@@ -444,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -482,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
@@ -515,4 +520,38 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Page" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N8"/>
 </workbook>
 </file>
 
@@ -419,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,7 +449,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13815" windowHeight="3060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Page" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jeffry Jeffry Jose</t>
+    <t>jeffry.jose86@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -523,17 +523,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
